--- a/data/trans_orig/P41C_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P41C_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F143A7CD-FCB8-4FB0-AF58-9FA9A6BF6B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4ACBD4D-3810-43CE-A6F2-10EB57F204B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F6D3D717-ACCD-4675-9E50-8A69AAFCDB63}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4CC47784-49A6-425F-89FD-8DD0E2AF1BD9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="158">
   <si>
     <t>Población con dificultades para tener un embarazo en 2023 (Tasa respuesta: 18,3%)</t>
   </si>
@@ -80,439 +80,433 @@
     <t>3,19%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>8,46%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
   </si>
   <si>
     <t>97,13%</t>
   </si>
   <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
   </si>
   <si>
     <t>96,63%</t>
   </si>
   <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FCAC70-DE2E-4AB3-8BD7-AF16883F0EBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A517C8F-699F-4484-A7C9-BAE345A18486}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1063,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1026</v>
+        <v>1075</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1078,7 +1072,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1026</v>
+        <v>1075</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1099,7 +1093,7 @@
         <v>59</v>
       </c>
       <c r="D5" s="7">
-        <v>48081</v>
+        <v>59583</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1114,7 +1108,7 @@
         <v>118</v>
       </c>
       <c r="I5" s="7">
-        <v>59877</v>
+        <v>64896</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1129,7 +1123,7 @@
         <v>177</v>
       </c>
       <c r="N5" s="7">
-        <v>107958</v>
+        <v>124478</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -1150,7 +1144,7 @@
         <v>59</v>
       </c>
       <c r="D6" s="7">
-        <v>48081</v>
+        <v>59583</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>21</v>
@@ -1165,7 +1159,7 @@
         <v>120</v>
       </c>
       <c r="I6" s="7">
-        <v>60903</v>
+        <v>65971</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>21</v>
@@ -1180,7 +1174,7 @@
         <v>179</v>
       </c>
       <c r="N6" s="7">
-        <v>108984</v>
+        <v>125553</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>21</v>
@@ -1203,7 +1197,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>2812</v>
+        <v>2905</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1218,7 +1212,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1406</v>
+        <v>1304</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>29</v>
@@ -1233,7 +1227,7 @@
         <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>4218</v>
+        <v>4209</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>31</v>
@@ -1254,7 +1248,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="7">
-        <v>56798</v>
+        <v>59112</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>34</v>
@@ -1269,7 +1263,7 @@
         <v>76</v>
       </c>
       <c r="I8" s="7">
-        <v>64179</v>
+        <v>61056</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>36</v>
@@ -1284,7 +1278,7 @@
         <v>115</v>
       </c>
       <c r="N8" s="7">
-        <v>120977</v>
+        <v>120168</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>38</v>
@@ -1305,7 +1299,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="7">
-        <v>59610</v>
+        <v>62017</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>21</v>
@@ -1320,7 +1314,7 @@
         <v>78</v>
       </c>
       <c r="I9" s="7">
-        <v>65585</v>
+        <v>62360</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>21</v>
@@ -1335,7 +1329,7 @@
         <v>119</v>
       </c>
       <c r="N9" s="7">
-        <v>125195</v>
+        <v>124377</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -1358,7 +1352,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>6429</v>
+        <v>6350</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>42</v>
@@ -1373,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>6407</v>
+        <v>6063</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>45</v>
@@ -1388,7 +1382,7 @@
         <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>12836</v>
+        <v>12413</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>48</v>
@@ -1409,7 +1403,7 @@
         <v>64</v>
       </c>
       <c r="D11" s="7">
-        <v>69234</v>
+        <v>68754</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>51</v>
@@ -1424,7 +1418,7 @@
         <v>92</v>
       </c>
       <c r="I11" s="7">
-        <v>73448</v>
+        <v>69293</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>54</v>
@@ -1439,7 +1433,7 @@
         <v>156</v>
       </c>
       <c r="N11" s="7">
-        <v>142682</v>
+        <v>138047</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>57</v>
@@ -1460,7 +1454,7 @@
         <v>70</v>
       </c>
       <c r="D12" s="7">
-        <v>75663</v>
+        <v>75104</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>21</v>
@@ -1475,7 +1469,7 @@
         <v>102</v>
       </c>
       <c r="I12" s="7">
-        <v>79855</v>
+        <v>75356</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -1490,7 +1484,7 @@
         <v>172</v>
       </c>
       <c r="N12" s="7">
-        <v>155518</v>
+        <v>150460</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>21</v>
@@ -1513,7 +1507,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>4584</v>
+        <v>4361</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>61</v>
@@ -1528,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>4545</v>
+        <v>4235</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>63</v>
@@ -1543,7 +1537,7 @@
         <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>9128</v>
+        <v>8596</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>66</v>
@@ -1564,7 +1558,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="7">
-        <v>64537</v>
+        <v>62627</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>69</v>
@@ -1579,7 +1573,7 @@
         <v>79</v>
       </c>
       <c r="I14" s="7">
-        <v>71315</v>
+        <v>65382</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>71</v>
@@ -1594,7 +1588,7 @@
         <v>116</v>
       </c>
       <c r="N14" s="7">
-        <v>135853</v>
+        <v>128009</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>74</v>
@@ -1615,7 +1609,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="7">
-        <v>69121</v>
+        <v>66988</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
@@ -1630,7 +1624,7 @@
         <v>84</v>
       </c>
       <c r="I15" s="7">
-        <v>75860</v>
+        <v>69617</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>21</v>
@@ -1645,7 +1639,7 @@
         <v>123</v>
       </c>
       <c r="N15" s="7">
-        <v>144981</v>
+        <v>136605</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
@@ -1668,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>762</v>
+        <v>694</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>78</v>
@@ -1683,7 +1677,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1029</v>
+        <v>936</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>80</v>
@@ -1698,7 +1692,7 @@
         <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>1791</v>
+        <v>1629</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>82</v>
@@ -1719,7 +1713,7 @@
         <v>74</v>
       </c>
       <c r="D17" s="7">
-        <v>57190</v>
+        <v>52161</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>85</v>
@@ -1734,7 +1728,7 @@
         <v>138</v>
       </c>
       <c r="I17" s="7">
-        <v>75729</v>
+        <v>67668</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>87</v>
@@ -1749,7 +1743,7 @@
         <v>212</v>
       </c>
       <c r="N17" s="7">
-        <v>132919</v>
+        <v>119830</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>89</v>
@@ -1770,7 +1764,7 @@
         <v>75</v>
       </c>
       <c r="D18" s="7">
-        <v>57952</v>
+        <v>52855</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>21</v>
@@ -1785,7 +1779,7 @@
         <v>140</v>
       </c>
       <c r="I18" s="7">
-        <v>76758</v>
+        <v>68604</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>21</v>
@@ -1800,7 +1794,7 @@
         <v>215</v>
       </c>
       <c r="N18" s="7">
-        <v>134710</v>
+        <v>121459</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>21</v>
@@ -1838,7 +1832,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>2284</v>
+        <v>2142</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>94</v>
@@ -1853,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>2284</v>
+        <v>2142</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>97</v>
@@ -1874,7 +1868,7 @@
         <v>81</v>
       </c>
       <c r="D20" s="7">
-        <v>73898</v>
+        <v>72506</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>19</v>
@@ -1889,7 +1883,7 @@
         <v>91</v>
       </c>
       <c r="I20" s="7">
-        <v>66843</v>
+        <v>62349</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>100</v>
@@ -1904,7 +1898,7 @@
         <v>172</v>
       </c>
       <c r="N20" s="7">
-        <v>140741</v>
+        <v>134855</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>103</v>
@@ -1925,7 +1919,7 @@
         <v>81</v>
       </c>
       <c r="D21" s="7">
-        <v>73898</v>
+        <v>72506</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -1940,7 +1934,7 @@
         <v>94</v>
       </c>
       <c r="I21" s="7">
-        <v>69127</v>
+        <v>64491</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -1955,7 +1949,7 @@
         <v>175</v>
       </c>
       <c r="N21" s="7">
-        <v>143025</v>
+        <v>136997</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -1978,7 +1972,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>8245</v>
+        <v>7959</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>106</v>
@@ -1993,7 +1987,7 @@
         <v>13</v>
       </c>
       <c r="I22" s="7">
-        <v>10109</v>
+        <v>9389</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>109</v>
@@ -2008,16 +2002,16 @@
         <v>21</v>
       </c>
       <c r="N22" s="7">
-        <v>18354</v>
+        <v>17347</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,46 +2023,46 @@
         <v>81</v>
       </c>
       <c r="D23" s="7">
-        <v>98034</v>
+        <v>97986</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>197</v>
       </c>
       <c r="I23" s="7">
-        <v>154411</v>
+        <v>143912</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>278</v>
       </c>
       <c r="N23" s="7">
-        <v>252445</v>
+        <v>241899</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,7 +2074,7 @@
         <v>89</v>
       </c>
       <c r="D24" s="7">
-        <v>106279</v>
+        <v>105945</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>21</v>
@@ -2095,7 +2089,7 @@
         <v>210</v>
       </c>
       <c r="I24" s="7">
-        <v>164520</v>
+        <v>153301</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>21</v>
@@ -2110,7 +2104,7 @@
         <v>299</v>
       </c>
       <c r="N24" s="7">
-        <v>270799</v>
+        <v>259246</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>21</v>
@@ -2124,7 +2118,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2133,46 +2127,46 @@
         <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>4948</v>
+        <v>4222</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>5252</v>
+        <v>4295</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
       </c>
       <c r="N25" s="7">
-        <v>10200</v>
+        <v>8517</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,22 +2178,22 @@
         <v>129</v>
       </c>
       <c r="D26" s="7">
-        <v>211538</v>
+        <v>380199</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="H26" s="7">
         <v>180</v>
       </c>
       <c r="I26" s="7">
-        <v>157251</v>
+        <v>131284</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>135</v>
@@ -2214,7 +2208,7 @@
         <v>309</v>
       </c>
       <c r="N26" s="7">
-        <v>368789</v>
+        <v>511483</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>138</v>
@@ -2235,7 +2229,7 @@
         <v>133</v>
       </c>
       <c r="D27" s="7">
-        <v>216486</v>
+        <v>384421</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>21</v>
@@ -2250,7 +2244,7 @@
         <v>185</v>
       </c>
       <c r="I27" s="7">
-        <v>162503</v>
+        <v>135579</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>21</v>
@@ -2265,7 +2259,7 @@
         <v>318</v>
       </c>
       <c r="N27" s="7">
-        <v>378989</v>
+        <v>520000</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>21</v>
@@ -2288,7 +2282,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="7">
-        <v>27780</v>
+        <v>26491</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>141</v>
@@ -2303,31 +2297,31 @@
         <v>42</v>
       </c>
       <c r="I28" s="7">
-        <v>32057</v>
+        <v>29437</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M28" s="7">
         <v>65</v>
       </c>
       <c r="N28" s="7">
-        <v>59837</v>
+        <v>55929</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,46 +2333,46 @@
         <v>564</v>
       </c>
       <c r="D29" s="7">
-        <v>679309</v>
+        <v>852928</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H29" s="7">
         <v>971</v>
       </c>
       <c r="I29" s="7">
-        <v>723056</v>
+        <v>665842</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M29" s="7">
         <v>1535</v>
       </c>
       <c r="N29" s="7">
-        <v>1402365</v>
+        <v>1518768</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,7 +2384,7 @@
         <v>587</v>
       </c>
       <c r="D30" s="7">
-        <v>707089</v>
+        <v>879419</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>21</v>
@@ -2405,7 +2399,7 @@
         <v>1013</v>
       </c>
       <c r="I30" s="7">
-        <v>755113</v>
+        <v>695279</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>21</v>
@@ -2420,7 +2414,7 @@
         <v>1600</v>
       </c>
       <c r="N30" s="7">
-        <v>1462202</v>
+        <v>1574697</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>21</v>
@@ -2434,7 +2428,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
